--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_RecoveryRate.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_RecoveryRate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\Sample Uploads\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PwC\Projects\SourceCode\Firs_9_ECL\FrontEnd\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE74B1-139B-4106-82C9-9F69AF7E1522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2CC29-3FE9-4351-B9A6-C23802FA5CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Customer_No</t>
   </si>
@@ -105,6 +103,9 @@
   </si>
   <si>
     <t>10113000000601</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
@@ -941,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +972,7 @@
     <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1015,11 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1055,8 +1059,11 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1096,8 +1103,12 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
+      <c r="O3">
+        <f>1+O2</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1137,8 +1148,12 @@
       <c r="N4" t="s">
         <v>17</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="0">1+O3</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1178,8 +1193,12 @@
       <c r="N5" t="s">
         <v>17</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1219,8 +1238,12 @@
       <c r="N6" t="s">
         <v>17</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1260,8 +1283,12 @@
       <c r="N7" t="s">
         <v>17</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1301,8 +1328,12 @@
       <c r="N8" t="s">
         <v>17</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1342,8 +1373,12 @@
       <c r="N9" t="s">
         <v>17</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1382,6 +1417,10 @@
       </c>
       <c r="N10" t="s">
         <v>17</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
